--- a/documents/GMP ANALYSIS 0001_1150-20 DATA_20210115_103535.xlsx
+++ b/documents/GMP ANALYSIS 0001_1150-20 DATA_20210115_103535.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E1B02F-3393-1640-B748-3F38FA5BD896}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEA3483-174A-DA44-929E-E1594F82F1D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,13 +323,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3470,8 +3470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P33"/>
   <sheetViews>
-    <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="A8" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3485,12 +3485,12 @@
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
@@ -3837,12 +3837,12 @@
         <v>16</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
@@ -4073,6 +4073,10 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B31">
+        <f>(1046+228)</f>
+        <v>1274</v>
+      </c>
       <c r="C31" t="s">
         <v>10</v>
       </c>
@@ -4084,6 +4088,10 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B32">
+        <f>(210+12)</f>
+        <v>222</v>
+      </c>
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -4094,7 +4102,11 @@
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33">
+        <f>(279+10)</f>
+        <v>289</v>
+      </c>
       <c r="C33" t="s">
         <v>13</v>
       </c>
@@ -4123,7 +4135,7 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4152,58 +4164,58 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
     </row>
     <row r="2" spans="2:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
       <c r="O2" s="7"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
       <c r="U2" s="7"/>
     </row>
     <row r="3" spans="2:24" ht="28" x14ac:dyDescent="0.2">
-      <c r="B3" s="29"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
@@ -4226,7 +4238,7 @@
         <v>8</v>
       </c>
       <c r="J3" s="6"/>
-      <c r="K3" s="29"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="12" t="s">
         <v>20</v>
       </c>
@@ -4240,7 +4252,7 @@
         <v>8</v>
       </c>
       <c r="P3" s="6"/>
-      <c r="Q3" s="29"/>
+      <c r="Q3" s="30"/>
       <c r="R3" s="12" t="s">
         <v>20</v>
       </c>
@@ -4719,58 +4731,58 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="30" t="s">
+      <c r="Q16" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
     </row>
     <row r="17" spans="2:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="29" t="s">
+      <c r="K17" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="29" t="s">
+      <c r="L17" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
       <c r="O17" s="7"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="29" t="s">
+      <c r="Q17" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="R17" s="29" t="s">
+      <c r="R17" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
       <c r="U17" s="7"/>
     </row>
     <row r="18" spans="2:21" ht="28" x14ac:dyDescent="0.2">
-      <c r="B18" s="29"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="7" t="s">
         <v>2</v>
       </c>
@@ -4793,7 +4805,7 @@
         <v>8</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="29"/>
+      <c r="K18" s="30"/>
       <c r="L18" s="12" t="s">
         <v>20</v>
       </c>
@@ -4807,7 +4819,7 @@
         <v>8</v>
       </c>
       <c r="P18" s="6"/>
-      <c r="Q18" s="29"/>
+      <c r="Q18" s="30"/>
       <c r="R18" s="12" t="s">
         <v>20</v>
       </c>
@@ -5255,11 +5267,19 @@
         <v>22</v>
       </c>
     </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="F31">
+        <v>2019</v>
+      </c>
+      <c r="K31">
+        <v>2018</v>
+      </c>
+    </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="29">
         <f>(1021+175)</f>
         <v>1196</v>
       </c>
@@ -5271,12 +5291,20 @@
         <f>SUM(G32:H32)</f>
         <v>1340</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F33" s="31" t="s">
+      <c r="K32">
+        <f>(1046+228)</f>
+        <v>1274</v>
+      </c>
+      <c r="M32">
+        <f>(1196-1274)/1264*100</f>
+        <v>-6.1708860759493671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F33" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="29">
         <f>(196+10)</f>
         <v>206</v>
       </c>
@@ -5288,12 +5316,20 @@
         <f>SUM(G33:H33)</f>
         <v>225</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F34" s="31" t="s">
+      <c r="K33">
+        <f>(210+12)</f>
+        <v>222</v>
+      </c>
+      <c r="M33">
+        <f>(206-222)/222*100</f>
+        <v>-7.2072072072072073</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F34" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="31">
+      <c r="G34" s="29">
         <f>(327+7)</f>
         <v>334</v>
       </c>
@@ -5305,8 +5341,16 @@
         <f>SUM(G34:H34)</f>
         <v>365</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K34">
+        <f>(279+10)</f>
+        <v>289</v>
+      </c>
+      <c r="M34">
+        <f>(334-289)/289*100</f>
+        <v>15.570934256055363</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="27" t="s">
         <v>39</v>
       </c>
@@ -5317,7 +5361,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -5334,7 +5378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -5352,7 +5396,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -5372,6 +5416,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="L17:N17"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="Q16:U16"/>
     <mergeCell ref="K1:O1"/>
@@ -5380,14 +5432,6 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="R2:T2"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="L17:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -5400,7 +5444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:U42"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
@@ -5421,41 +5465,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="16"/>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
       <c r="O2" s="16"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
       <c r="U2" s="16"/>
     </row>
     <row r="3" spans="2:21" ht="28" x14ac:dyDescent="0.2">
-      <c r="B3" s="29"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
@@ -5478,7 +5522,7 @@
         <v>8</v>
       </c>
       <c r="J3" s="15"/>
-      <c r="K3" s="29"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="21" t="s">
         <v>20</v>
       </c>
@@ -5492,7 +5536,7 @@
         <v>8</v>
       </c>
       <c r="P3" s="15"/>
-      <c r="Q3" s="29"/>
+      <c r="Q3" s="30"/>
       <c r="R3" s="21" t="s">
         <v>20</v>
       </c>
@@ -5937,41 +5981,41 @@
       </c>
     </row>
     <row r="17" spans="2:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="16"/>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="29" t="s">
+      <c r="K17" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="29" t="s">
+      <c r="L17" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
       <c r="O17" s="16"/>
       <c r="P17" s="15"/>
-      <c r="Q17" s="29" t="s">
+      <c r="Q17" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="R17" s="29" t="s">
+      <c r="R17" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
       <c r="U17" s="16"/>
     </row>
     <row r="18" spans="2:21" ht="28" x14ac:dyDescent="0.2">
-      <c r="B18" s="29"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="16" t="s">
         <v>2</v>
       </c>
@@ -5994,7 +6038,7 @@
         <v>8</v>
       </c>
       <c r="J18" s="15"/>
-      <c r="K18" s="29"/>
+      <c r="K18" s="30"/>
       <c r="L18" s="21" t="s">
         <v>20</v>
       </c>
@@ -6008,7 +6052,7 @@
         <v>8</v>
       </c>
       <c r="P18" s="15"/>
-      <c r="Q18" s="29"/>
+      <c r="Q18" s="30"/>
       <c r="R18" s="21" t="s">
         <v>20</v>
       </c>
